--- a/Data_sTDA_Davidson.xlsx
+++ b/Data_sTDA_Davidson.xlsx
@@ -8,13 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zehaozhou/project/davidson/davidson/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A21A79B5-9332-494E-8AB0-58221F45DFB8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A5FFF30-E1BE-3D4A-BED5-89B5D7EC5F50}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12640" yWindow="1780" windowWidth="24680" windowHeight="15540" xr2:uid="{11BA135B-FFA3-0B4C-9E24-15E2DA76128A}"/>
+    <workbookView xWindow="12540" yWindow="1820" windowWidth="29560" windowHeight="19780" xr2:uid="{11BA135B-FFA3-0B4C-9E24-15E2DA76128A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$56:$A$60</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$55</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$56:$B$60</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$C$55</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$C$56:$C$60</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$D$55</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$D$56:$D$60</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>Number of Iterations</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="25">
   <si>
     <t>ConvergenceTolerance</t>
   </si>
@@ -48,15 +54,6 @@
     <t>10^-9</t>
   </si>
   <si>
-    <t>A.diag-predonditioner</t>
-  </si>
-  <si>
-    <t>sTDA-preconditioner</t>
-  </si>
-  <si>
-    <t>sTDA-preconditioner and sTDA-initial guess</t>
-  </si>
-  <si>
     <t>10^-10</t>
   </si>
   <si>
@@ -71,12 +68,54 @@
   <si>
     <t>5 eigenvalues</t>
   </si>
+  <si>
+    <t>diag_A_predonditioner</t>
+  </si>
+  <si>
+    <t>sTDA_A_preconditioner</t>
+  </si>
+  <si>
+    <t>sTD_A_preconditioner and sTDA_A_initial guess</t>
+  </si>
+  <si>
+    <t>Methanol</t>
+  </si>
+  <si>
+    <t>WB97X, Number of Iterations</t>
+  </si>
+  <si>
+    <t>WB97X,  Number of Iterations</t>
+  </si>
+  <si>
+    <t>Number of excited states</t>
+  </si>
+  <si>
+    <t>sTD_A_preconditioner and initial guess</t>
+  </si>
+  <si>
+    <t>Acetaldegyde</t>
+  </si>
+  <si>
+    <t>HF,  Number of Iterations</t>
+  </si>
+  <si>
+    <t>sTDA_A_preconditioner and initial guess</t>
+  </si>
+  <si>
+    <t>Iterations reduced by</t>
+  </si>
+  <si>
+    <t>RHF, Number of Iterations  parameters: cam-b3lyp</t>
+  </si>
+  <si>
+    <t>RHF, Number of Iterations  parameters: wb97x</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -112,10 +151,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -170,7 +219,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Number</a:t>
+              <a:t>RHF, Number</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -225,7 +274,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>A.diag-predonditioner</c:v>
+                  <c:v>diag_A_predonditioner</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -320,7 +369,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>sTDA-preconditioner</c:v>
+                  <c:v>sTDA_A_preconditioner</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -415,7 +464,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>sTDA-preconditioner and sTDA-initial guess</c:v>
+                  <c:v>sTD_A_preconditioner and sTDA_A_initial guess</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -697,7 +746,1433 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000"/>
+              <a:t>Methanol, WB97X , def2-SVP, tol=1e-5</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US" sz="2000"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.24588882745108265"/>
+          <c:y val="4.0139517558216972E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>diag_A_predonditioner</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$46:$A$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$46:$B$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AF9A-A347-92F9-3B7387BF8BA9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sTDA_A_preconditioner</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$46:$A$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$46:$C$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AF9A-A347-92F9-3B7387BF8BA9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sTDA_A_preconditioner and initial guess</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$46:$A$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$46:$D$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-AF9A-A347-92F9-3B7387BF8BA9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="312893311"/>
+        <c:axId val="312894991"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="312893311"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800"/>
+                  <a:t>Number of excited states</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.4193090439301872"/>
+              <c:y val="0.82457479252149601"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="312894991"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="312894991"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800"/>
+                  <a:t>Number of Iterations</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="312893311"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Methanol, HF , def2-SVP, tol=1e-5</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="2400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.6174579242441665E-2"/>
+          <c:y val="0.1180095127330736"/>
+          <c:w val="0.89410711053393799"/>
+          <c:h val="0.69708271462104443"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>diag_A_predonditioner</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$56:$A$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$56:$B$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AF9A-A347-92F9-3B7387BF8BA9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sTDA_A_preconditioner</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$56:$A$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$56:$C$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AF9A-A347-92F9-3B7387BF8BA9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sTD_A_preconditioner and initial guess</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$56:$A$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$56:$D$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-AF9A-A347-92F9-3B7387BF8BA9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="312893311"/>
+        <c:axId val="312894991"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="312893311"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Number of excited states</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1800">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US" sz="1800"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.3831588551838907"/>
+              <c:y val="0.86313993070422368"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="312894991"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="312894991"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Number of Iterations</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="312893311"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1240,20 +2715,1026 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>196850</xdr:rowOff>
+      <xdr:colOff>1352550</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>939800</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>1968500</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1273,6 +3754,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>59642</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>35608</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>195385</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>30238</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BB57B89-79DF-2B43-838D-03B8857DB0B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>52411</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>180622</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>65128</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>120952</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F459CBE-0E96-F449-9116-C63A791E3CC0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1578,52 +4131,80 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6319AE2-5EB5-3341-B2CD-0FDDBEB9911F}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" zoomScale="50" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="31.1640625" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" customWidth="1"/>
-    <col min="3" max="3" width="26.33203125" customWidth="1"/>
-    <col min="4" max="4" width="36.6640625" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" customWidth="1"/>
+    <col min="3" max="3" width="32.1640625" customWidth="1"/>
+    <col min="4" max="4" width="43.33203125" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" customWidth="1"/>
+    <col min="7" max="7" width="28.83203125" customWidth="1"/>
+    <col min="8" max="8" width="35.5" customWidth="1"/>
+    <col min="9" max="9" width="44.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
         <v>13</v>
       </c>
+      <c r="F3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
         <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>2</v>
       </c>
       <c r="B4">
         <v>14</v>
@@ -1634,10 +4215,19 @@
       <c r="D4">
         <v>10</v>
       </c>
+      <c r="F4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>15</v>
+      </c>
+      <c r="I4">
+        <v>11</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5">
         <v>16</v>
@@ -1648,10 +4238,19 @@
       <c r="D5">
         <v>11</v>
       </c>
+      <c r="F5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>17</v>
+      </c>
+      <c r="I5">
+        <v>12</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6">
         <v>17</v>
@@ -1662,10 +4261,13 @@
       <c r="D6">
         <v>13</v>
       </c>
+      <c r="F6" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7">
         <v>18</v>
@@ -1676,10 +4278,13 @@
       <c r="D7">
         <v>14</v>
       </c>
+      <c r="F7" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8">
         <v>19</v>
@@ -1690,10 +4295,13 @@
       <c r="D8">
         <v>15</v>
       </c>
+      <c r="F8" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>20</v>
@@ -1704,10 +4312,13 @@
       <c r="D9">
         <v>16</v>
       </c>
+      <c r="F9" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B10">
         <v>21</v>
@@ -1718,10 +4329,13 @@
       <c r="D10">
         <v>17</v>
       </c>
+      <c r="F10" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B11">
         <v>22</v>
@@ -1732,10 +4346,292 @@
       <c r="D11">
         <v>18</v>
       </c>
+      <c r="F11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38">
+        <v>4</v>
+      </c>
+      <c r="B38">
+        <v>13</v>
+      </c>
+      <c r="C38">
+        <v>13</v>
+      </c>
+      <c r="D38">
+        <v>8</v>
+      </c>
+      <c r="E38" s="5">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>17</v>
+      </c>
+      <c r="B45" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" t="s">
+        <v>21</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46">
+        <v>3</v>
+      </c>
+      <c r="B46">
+        <v>17</v>
+      </c>
+      <c r="C46">
+        <v>14</v>
+      </c>
+      <c r="D46">
+        <v>8</v>
+      </c>
+      <c r="E46" s="6">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47">
+        <v>4</v>
+      </c>
+      <c r="B47">
+        <v>15</v>
+      </c>
+      <c r="C47">
+        <v>12</v>
+      </c>
+      <c r="D47">
+        <v>7</v>
+      </c>
+      <c r="E47" s="6">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48">
+        <v>5</v>
+      </c>
+      <c r="B48">
+        <v>14</v>
+      </c>
+      <c r="C48">
+        <v>11</v>
+      </c>
+      <c r="D48">
+        <v>7</v>
+      </c>
+      <c r="E48" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49">
+        <v>6</v>
+      </c>
+      <c r="B49">
+        <v>15</v>
+      </c>
+      <c r="C49">
+        <v>10</v>
+      </c>
+      <c r="D49">
+        <v>9</v>
+      </c>
+      <c r="E49" s="6">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50">
+        <v>7</v>
+      </c>
+      <c r="B50">
+        <v>14</v>
+      </c>
+      <c r="C50">
+        <v>10</v>
+      </c>
+      <c r="D50">
+        <v>7</v>
+      </c>
+      <c r="E50" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>17</v>
+      </c>
+      <c r="B55" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56">
+        <v>3</v>
+      </c>
+      <c r="B56">
+        <v>20</v>
+      </c>
+      <c r="C56">
+        <v>15</v>
+      </c>
+      <c r="D56">
+        <v>9</v>
+      </c>
+      <c r="E56" s="6">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57">
+        <v>4</v>
+      </c>
+      <c r="B57">
+        <v>15</v>
+      </c>
+      <c r="C57">
+        <v>14</v>
+      </c>
+      <c r="D57">
+        <v>9</v>
+      </c>
+      <c r="E57" s="6">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58">
+        <v>5</v>
+      </c>
+      <c r="B58" s="4">
+        <v>17</v>
+      </c>
+      <c r="C58" s="4">
+        <v>13</v>
+      </c>
+      <c r="D58" s="4">
+        <v>9</v>
+      </c>
+      <c r="E58" s="6">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59">
+        <v>6</v>
+      </c>
+      <c r="B59" s="4">
+        <v>16</v>
+      </c>
+      <c r="C59" s="4">
+        <v>13</v>
+      </c>
+      <c r="D59" s="4">
+        <v>9</v>
+      </c>
+      <c r="E59" s="6">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60">
+        <v>7</v>
+      </c>
+      <c r="B60" s="4">
+        <v>15</v>
+      </c>
+      <c r="C60" s="4">
+        <v>12</v>
+      </c>
+      <c r="D60" s="4">
+        <v>8</v>
+      </c>
+      <c r="E60" s="6">
+        <v>0.47</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="5">
     <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="G2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
